--- a/Stroop Effect.xlsx
+++ b/Stroop Effect.xlsx
@@ -8,14 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecb31c4ccabb0618/Documents/GitHub/Inferential-Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="A96F7B52CE4C7C355C3719D7FC32306371C23A5A" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{220C4C6C-043C-452F-88D6-4DE368215679}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="A96F7B52CE4C7C355C3719D7FC32306371C23A5A" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{010BC418-7FEB-470D-93D8-E579E9BFFEC3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stroop Effect" sheetId="3" r:id="rId1"/>
+    <sheet name="Stroop Effect" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Stroop Effect'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Stroop Effect'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Stroop Effect'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Stroop Effect'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Stroop Effect'!$A$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Stroop Effect'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Stroop Effect'!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Stroop Effect'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Stroop Effect'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Stroop Effect'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Stroop Effect'!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Stroop Effect'!$A$2:$A$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Stroop Effect'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Stroop Effect'!$B$2:$B$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Stroop Effect'!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Stroop Effect'!$A$2:$A$25</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Sample Size</t>
   </si>
@@ -34,9 +52,6 @@
     <t>Degrees of Freedom</t>
   </si>
   <si>
-    <t>SS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sample Mean</t>
   </si>
   <si>
@@ -49,12 +64,6 @@
     <t>sum of squared variances / n-1</t>
   </si>
   <si>
-    <t>Pooled Variance</t>
-  </si>
-  <si>
-    <t>Sp2 = (SS for N1 + SS  N2) / (DF for N1 + DF for N2)</t>
-  </si>
-  <si>
     <t>p Range =</t>
   </si>
   <si>
@@ -76,9 +85,6 @@
     <t>Std Dev / sqrt (n)</t>
   </si>
   <si>
-    <t>Pooled (corrected) Std Err</t>
-  </si>
-  <si>
     <t>Find p from t statistic</t>
   </si>
   <si>
@@ -91,9 +97,6 @@
     <t>Dmean/ std err</t>
   </si>
   <si>
-    <t>Corrected t Statistic</t>
-  </si>
-  <si>
     <t>One tailed - P is probability above t statistic if positive and prob below if negative.</t>
   </si>
   <si>
@@ -124,13 +127,7 @@
     <t>Lower Value:</t>
   </si>
   <si>
-    <t>diff(sample means) - (critical z * std err)</t>
-  </si>
-  <si>
     <t>Upper Value:</t>
-  </si>
-  <si>
-    <t>diff(sample mean) + (critical z * std err)</t>
   </si>
   <si>
     <t>r^2</t>
@@ -177,153 +174,44 @@
     </r>
   </si>
   <si>
-    <t>Sample Median</t>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>incong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - µ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>incong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>α =</t>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>(D Statistics)</t>
+  </si>
+  <si>
+    <t>H0:  MUd =</t>
+  </si>
+  <si>
+    <t>Ha: MUd &lt;&gt;</t>
+  </si>
+  <si>
+    <t>alpha =</t>
+  </si>
+  <si>
+    <t>X Mean</t>
+  </si>
+  <si>
+    <t>Y Mean</t>
+  </si>
+  <si>
+    <t>sample mean - (critical z * std err)</t>
+  </si>
+  <si>
+    <t>sample mean + (critical z * std err)</t>
+  </si>
+  <si>
+    <t>t Statistic is in critical area - reject H0</t>
+  </si>
+  <si>
+    <t>t Statistic is not in critical area - fail to reject H0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +242,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -384,26 +265,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -687,6 +559,93 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Analysis of Data Sets</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Analysis of Data Sets</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C8C45BE9-8920-436D-BB54-81A240B1DEDB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Ncong</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8D227BDE-CDFC-4371-BC76-C7879AF8F451}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Nincong</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.319999993"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -727,7 +686,609 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1244,6 +1805,89 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>278605</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0568F88-CFE8-47EA-9E94-2864069EE535}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="278605" y="5748338"/>
+              <a:ext cx="4455320" cy="3540918"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1294,8 +1938,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76290</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -1314,7 +1958,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -1359,8 +2003,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>42810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
@@ -1379,7 +2023,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Ink 71">
@@ -1424,8 +2068,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76185</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -1444,7 +2088,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -1489,8 +2133,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28665</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Ink 73">
@@ -1509,7 +2153,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Ink 73">
@@ -1554,8 +2198,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114510</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Ink 82">
@@ -1574,7 +2218,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Ink 82">
@@ -1619,8 +2263,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142845</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Ink 83">
@@ -1639,7 +2283,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Ink 83">
@@ -1684,8 +2328,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Ink 84">
@@ -1704,7 +2348,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Ink 84">
@@ -1749,8 +2393,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>33585</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Ink 89">
@@ -1769,7 +2413,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Ink 89">
@@ -1814,8 +2458,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -1834,7 +2478,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -1879,8 +2523,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>43470</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -1899,7 +2543,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -1985,7 +2629,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2513 278 5376,'0'27'2016,"0"-27"-1088,0 0-320,0 0 1248,0 0-480,14 0-480,-1 0-256,0-13-384,0 26-32,1-26 0,12-14-96,-13 0-96,1 1-704,-1 13-288,0-1-5728,1 14 3232</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="390.9764">2527 397 6400,'0'0'2368,"0"-27"-1280,13 27-704,0 0 608,1 0-320,-1 0-32,13 0-320,1-13-128,-14 0-96,14 13-96,-14-13 32,13-14-832,-13 1-256,1-1-2336</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="390.9763">2527 397 6400,'0'0'2368,"0"-27"-1280,13 27-704,0 0 608,1 0-320,-1 0-32,13 0-320,1-13-128,-14 0-96,14 13-96,-14-13 32,13-14-832,-13 1-256,1-1-2336</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-150562.4332">2169 1335 5376,'0'13'2016,"0"-13"-1088,0 0-512,0 14 1088,0-1-832,0 0 672,0 14-800,0-1 288,0 1-480,-13-1 32,13 14-256,0-1 0,0 1-64,0 0-128,0-1 32,0 1 32,0 13 0,0 0 64,0 13-32,-13 0-32,13 0 32,0 1 32,0-1-32,-14 0-96,14-13 32,0 26 96,-13-26-32,13 13 64,0-13-64,-13 0-96,13-13 32,-13 13 32,13-13 0,0 12 64,0-12-32,-14 13-96,14-13 32,0 0 32,0 12 0,-13-12 0,13 13 0,0-13 64,0-14-32,0 1-32,0-1 32,0 1-128,0-14 64,0 0 32,0 14 0,-13-14 0,13 0 0,-13 0 64,13 0-32,0 1-96,0-1 32,0 0-32,0 0 0,0 1 64,0-1 0,-14 0 0,28 0 0,-28 1-288,14-1 160,0-13-576,0 13 384,0 0-704,0-13 576,0 0-1120,0 14 896,0-14-2304,0 0 1664,0 0-1440,0 0 1600</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3813.303">807 1256 6400,'0'0'2368,"0"0"-1280,-14 13-768,14-13 832,0 0-672,0 14 352,0-14-512,0 0 768,0 0-640,0 0 992,14 0-801,-14 0 545,13-14-704,0 1 96,0 0-320,1 0-160,-1-1-64,-13 1-32,26 0 0,-26-1-576,14 14 320,-1-13-1727,-13 13 1087,13 0-1632,-13 0 1440,0 0-1376,0 0 1408,0 0-2048,0 0 1728</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3409.4974">992 885 5376,'0'0'2016,"0"0"-1088,0-13-384,0 13 1184,0 0-960,0 0 576,0 13-832,0-13 320,0 14-512,0-1 480,0 0-480,0 0 512,0 14-513,14-1 577,-14 1-512,0-1 224,13 14-352,-13-13-64,13-1-128,-13-13-64,13 14 32,1-1 32,-1-12-32,13-1 64,-13-13-64,14-13-224,-1-1 96,1 1-1792,-1 0 1025,-12 0-3905,-1-1 2624,0 1-2528,-13 13 2688</inkml:trace>
@@ -2002,7 +2646,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-484.8948">2223 609 4992,'-13'0'1824,"13"0"-960,0 0-224,0 0 672,0 0 0,0 0 0,-14 0-288,14 0-160,0 0-480,0 0 32,-13 0 32,13-14-224,0 14-64,-13 0-96,13-13-64,0 13 32,0 13-32,-13-13 0,-1 14 64,14-1 32,-13 14 32,13-1 0,0-13 0,13 1-65,-13-14-63,0 0 32,14 0-32,-1-14 0,0 1 64,0 0-96,1 0 0,-1-1-32,-13 1 1,13 0 63,-13 13 63,14 0-31,-14 0-32,13 0-63,0 0-33,-13 0-928,0 0-448,13 0-288,-13-14-64,0 14 0,0 0 96,0 0 32,0-13-544</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-253.3481">2222 13 6144,'0'-13'2368,"0"26"-1280,0 1-640,13 12 704,-13 0 0,14 14 64,-1 13 0,0-13-64,-13 13-609,27-13 33,-27 13 64,13-14-352,0 1-160,1-13-576,-1 12-192,13-26-1503,-12 1-705</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33138.3762">2170 3135 2944,'0'0'1120,"0"0"-576,0 0-704,0 0 192,0 14-32,0-14 64,0 0-32,0 0 544,0 0-320,0 0 384,0 0-352,0 0-96,0 0-96,0 0-96,0 0 32,0-14-608,0 14 320,0 0-1664,0 0 1088,0-13-928,0 13 1024</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33787.7731">2063 3070 2944,'0'-14'1120,"0"14"-576,0 14 64,0-14 1056,0 13-896,0-13 480,0 13-736,0-13 288,14 0-480,-14 13 320,13-13-352,-13 14 256,0-1-288,0 0 192,0 0-224,0 1 224,13-1-256,-13 0 256,0 13-256,0-12 256,0 12-256,0 1 32,0-1-128,0 14-64,0-14 0,-13 1 32,13-1-32,0 14-32,0-14 32,0 1 32,0 12-32,0-12-448,0-1 224,0 1-1664,0-1 1024,0-13-3456,0 14 2400</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33787.773">2063 3070 2944,'0'-14'1120,"0"14"-576,0 14 64,0-14 1056,0 13-896,0-13 480,0 13-736,0-13 288,14 0-480,-14 13 320,13-13-352,-13 14 256,0-1-288,0 0 192,0 0-224,0 1 224,13-1-256,-13 0 256,0 13-256,0-12 256,0 12-256,0 1 32,0-1-128,0 14-64,0-14 0,-13 1 32,13-1-32,0 14-32,0-14 32,0 1 32,0 12-32,0-12-448,0-1 224,0 1-1664,0-1 1024,0-13-3456,0 14 2400</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37930.3676">1932 3149 5504,'0'0'2112,"0"0"-1152,13 13-288,-13 1 1216,14-1-1056,-14 0 160,0 14-608,13 25 0,-13 1-256,0-13 0,13 13-64,-13-13-64,0 0 32,0-1 32,0-12-32,0-1 128,13 14-96,-13-27 128,0 0-128,0-26 128,0 13-128,14-13 128,-14-14-128,0-12 128,13 12-128,-13-12-96,0-1 0,0-13 32,0 13 0,0 0 0,0 27 0,0 0 0,0 0 0,0 13 0,0 13 0,0 13 0,0 1 0,0-14 64,0 14-32,0-1-32,0 1 32,0-14-128,0 0 64,0 0-32,13 1 0,-13-28 0,0 14 0,13-26 128,-13-1-32,0 1 64,0-1-64,13-26 64,-13 14-64,0-1-32,0 14 32,0-14 96,0 13-64,0 14 32,0 13-32,0 27-64,0-14 32,0 27-32,0-1 0,0 1-96,-13 13 64,13 0-32,0-13 0,0 13-224,0-14 160,0-12-384,0-1 288,0 1 64,0-14 64,0-26 160,0 13-32,0-27 64,0 1-64,0-14 64,0 14-64,-13-27 64,13 13-64,-13-26-32,13 26 32,0-13-128,0 13 64,-13 14 32,13-1 0,0 14 64,0 13-32,-14 13 192,14 14-128,-13 13-32,13-1-32,-13 1-32,13 13 0,-13 0-96,-1 0 64,14-13-32,0 13 0,-13-27 0,13 0 0,0-12 0,0-14 0,0-27 64,13 27 0,-13-39 0,0 12 0,0-26 0,14 13 0,-14-13 64,0 14-32,0-14 128,13 13-96,-13 14 192,0-1-160,-13 14 256,13 13-224,0 13 96,-14 14-128,14 12 96,-13 1-128,0 13-32,0 0 0,-14 0-32,14 0 0,0-13-96,13-1 64,-13-12-192,13-1 128,-14-13-96,14-13 96,0-13 64,0 0 32,14-27 0,-14 1 0,0-1 0,0-13 0,0 0 64,0 13-32,-14 0 192,14 1-128,-13 12 192,13 14-192,0 13-33,-13 13-31,0 14 32,13-1-32,-14 14 64,1 0-64,0 13-32,0 0 32,13-27-32,-14 14 0,1-14-96,13 1 64,-13-27-32,13 13 0,0-26 0,0 13 1,0-40 63,0 14 0,0-14 0,0 0 0,0 0 0,0 1 0,0-1 63,0 0-31,0 14 64,0 12-64,0 1-32,-13 13 32,13 13 96,0 1-64,-13 25 128,13 1-128,-14 0 32,1 0-32,13-1 32,-13 1-64,13 0-96,-13-14 32,13 1-256,0-1 160,0-26-160,0 0 160,-14-26 1,28-1 63,-14-12 64,0-1 0,0-13 0,0 0 0,0 13 64,0 14-32,-14-1 127,14 14-95,0 0-32,0 26 0,-13 13-32,13-12 0,-13 25 64,0 1-32,-1 0 64,1 0-64,0-14 64,13 14-64,-13-14-96,13 14 32,-14-27-192,14 0 128,-13-26-95,13 13 95,0-26 0,0-1 32,0 1 128,0-1-32,0-12-32,0 12 32,0 1-192,0 12 96,-13 1-32,13 0 32,-13 13 64,13 13 0,0-13 64,-13 27-32,13-14 128,0 13-96,-14-12 32,14 12-32,-13 1-64,13-14 32,-13 0-192,13 0 96,-13-13-96,13 0 64,0 0 0,0-13 32,-14-13 128,14-1-32,0 1-32,0-1 32,-13 1-256,13 12 128,0-12-32,0 26 64,-13-13 128,13 26-32,-13 0 128,13 0-96,-14 14 128,1 13-128,0-14 128,0 14-128,0-14-32,-1 1 0,1-1-128,13-13 64,-13 1-192,13-14 128,0-14-32,0 14 64,-13-26 192,13-1-64,0 1 128,0 0-128,-14-1 256,14 14-193,0 0 97,-13-1-128,13 14 0,-13 0-32,0 14 32,13-1-64,-14 0 64,14 14-64,-13-1 64,13 0-64,-13 1 64,0-1-64,13-12-96,0-1 32,-13 0-192,13 0 128,0-26-160,0 13 128,-14-13 64,14 0 64,0-14 64,0 14-32,-13-14 64,13 14-64,-13 0 64,13 0-64,0 13 64,0 0-64,-13 26-32,13-13 32,-14 14-32,14-1 0,0-12 64,0 12-32,-13-13-288,13 1 128,-13-1-383,13 0 287,0-26-96,0 13 192,0-13 64,0-1 64,0-12 0,0 13 0,0-14 128,0 1-64,0-1 192,0 1-160,-13 26 191,13-13-191,-14 26 192,14-13-192,-26 26 96,26 1-96,-13-1 0,-1 1-32,1-1 32,0 1-64,13-1-32,-13-13 32,13 1-32,-13-1 0,13-13-160,0 0 96,-14-13-32,14 13 32,0-27 64,0 1 0,-13-1 64,13 14-32,0-14 128,0 14-96,-13 0 128,13 0-128,-13 13-32,13 13 0,-14 0-32,14 0 0,-13 1 0,0-1 0,13-13-160,0 13 96,-13 0-320,13-13 224,0 0-224,0-13 224,-14 0 65,14 0 95,-13-1 63,13 1-31,-13 0-32,13 0 32,-13 13-32,0 0 0,-1 0 0,14 13 0,-13 0 0,0 14 0,0-14 64,13 0-32,-14 0-223,14 1 95,-13-14-320,13 0 256,0-14 64,0 14 64,-13-13 96,13-13-32,0 12 128,0 1-96,-13 13 128,13 0-128,-14 0 128,14 13-129,-13 1 129,0-1-128,0 0 128,13 0-128,-13 1-160,13-1 32,-14-13-192,14 0 160,-13 0-95,13-13 95,-13-1 192,13 14-32,0-13 383,-13 0-223,13 0 96,-14 13-192,14 0 0,-13 13-64,0-13-64,13 13 32,-13-13-192,-1 0 96,1 0-384,13 13 224,-13-26-287,13 13 255,-13 0 96,0-13 64,13 0 224,-14 13-64,1-14 128,13 14-128,-13 14-32,13-14 0,-13 13-32,-1 0 0,1-13 64,13 13-32,-13-13-160,13 0 64,-13 0-256,13 0 192,-14 0-96,1-13 128,13 13 128,-13-13 0,0 13 320,13 0-160,-27 0 160,27 0-193,-26 13 129,13-13-160,-1 13 160,1-13-192,-13 14 96,12-14-96,1 13 96,0-13-128,0 0 32,-1 13-32,14-13-64,-13 0 32,13 0-128,0 0 64,0 0-128,0 13 96,13-13-32,1 0 32,-1 0 64,13 0 0,1 0-96,13 0 64,-1 0-128,-12 0 96,12-13-96,1 0 64,13 0 64,-13-1 32,13 1-96,-14 0 64,14 0-128,0-1 96,-13 14-32,0-13 33,13 13-1,-14 0 0,1 0 0,0 0 0,-1-13 64,1 13 0,13-27-96,0 14 64,0-13 32,-13 13 0,-1-14 64,14 14-32,-13 0-32,0-1 32,-1 1-320,1 0 160,0 0-576,-1 13 384,-12-14-1280,12 14 928,-12-13-2336,-1 13 1696,14-13-2144,-13 0 1984</inkml:trace>
 </inkml:ink>
 </file>
@@ -2113,7 +2757,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">13 159 6144,'0'0'2368,"0"0"-1280,0 0-352,0 0 1408,0 0-1216,0-13 576,13 13-928,0 0 479,1-13-607,-1-1 192,13 1-384,1-13-64,-1 12-128,1-12-960,-1 13 480,-13-1-2143,14 14 1407,-14-13-3552,0 13 2624</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="256.3237">0 398 7936,'14'-13'2976,"-14"13"-1600,26-40-1472,-13 27 672,0 13-416,14-14 128,-14 1-160,14 0 0,-1 0-64,1-1-1184,-1 1 608,-13 0-3456,14-1 2208</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="256.3236">0 398 7936,'14'-13'2976,"-14"13"-1600,26-40-1472,-13 27 672,0 13-416,14-14 128,-14 1-160,14 0 0,-1 0-64,1-1-1184,-1 1 608,-13 0-3456,14-1 2208</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2238,16 +2882,16 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31528.0144">1747 158 5632,'0'-13'2112,"0"13"-1152,0 13-480,0 1 1216,0-14-960,14 26 1152,-14 1-1088,13-1 928,-13 1-993,13 12 705,0 1-832,1 0 448,-1-1-608,-13 1-32,13 0-256,1 0-320,-14-1 96,13 1-1056,-13-14 640,13 1-2271,0-14 1535,-13 0-4192,14 1 3040</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32619.7547">1933 463 9472,'0'0'3520,"0"0"-1920,0 0-1440,0 0 832,0 13-608,0-13-128,13 0-161,1 14-798,-14-1 415,26-26-1664,-12 13 1088,-1 0-3488,13-14 2432</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32822.8993">1959 582 6784,'0'0'2528,"0"0"-1344,13 0-896,-13 0 704,14 0-608,-1-14-128,0 14-160,14 0-928,-1 0 448,-13 0-2944,1 0 1856,12 0-1984,-13-13 1984</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45581.7854">2263 317 5376,'0'0'2112,"0"0"-1152,0 0-1120,0 0 1856,0-13-512,0 0-32,0 13 192,0-13-768,0-1 384,0 1-544,0 0 256,14 0-385,-1-1 65,-13 1-224,13 0-128,0 0-32,-13-14 32,27 27 0,-14 0-96,0 0 64,1 27 224,12-1-96,-13 1 192,1 12-192,-14 14 96,13-13-96,-26 13 96,13-13-128,-14 13 32,1-14-32,-13 1-64,12 0 32,-12-14-192,-1-12 96,14-1-32,0-13 32,-14 0 128,27 0-32,0-13-32,0-1 32,0 1-32,0 0 0,27 0-96,-14 13 64,14-14 32,-14 14 0,13-13 0,1 13 0,-14 0-160,0 13 96,1 1-608,-1-14 384,0 13-1311,-13-13 927,13 13-3040,-13-13 2080,14 0-2656,-14 0 2464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45581.7853">2263 317 5376,'0'0'2112,"0"0"-1152,0 0-1120,0 0 1856,0-13-512,0 0-32,0 13 192,0-13-768,0-1 384,0 1-544,0 0 256,14 0-385,-1-1 65,-13 1-224,13 0-128,0 0-32,-13-14 32,27 27 0,-14 0-96,0 0 64,1 27 224,12-1-96,-13 1 192,1 12-192,-14 14 96,13-13-96,-26 13 96,13-13-128,-14 13 32,1-14-32,-13 1-64,12 0 32,-12-14-192,-1-12 96,14-1-32,0-13 32,-14 0 128,27 0-32,0-13-32,0-1 32,0 1-32,0 0 0,27 0-96,-14 13 64,14-14 32,-14 14 0,13-13 0,1 13 0,-14 0-160,0 13 96,1 1-608,-1-14 384,0 13-1311,-13-13 927,13 13-3040,-13-13 2080,14 0-2656,-14 0 2464</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45757.8732">2541 555 10112,'0'13'3776,"0"-13"-2048,0 0-1888,0 14 640,0-14-352,0 0-992,13 0 448,-13 0-2368,0 0 1536,14 0-2944,-14-14 2368</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46241.7354">2713 119 3968,'-13'0'1568,"13"0"-832,0 13-224,0-13 1280,0 0-960,0 14 928,0 12-1024,-13 1 768,-1-1-864,14 14 448,-13 0-640,13 13 96,0-14-288,0 1-161,13-13-63,-13-1-127,27 1 63,-14-27-32,0 13 0,14-26 64,-1-1 0,1 1 64,-1-13-32,-13-14 63,1 13-63,-14-26 64,0 27-64,-14-27 64,1 26-64,-13 1 128,12 13-96,-25-1-96,12 14 0,1 14-543,-1 12 319,1 1-1504,-1-1 960,14 1-2752,13-1 2016,-13-13-2336,13 14 2208</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46491.735">3017 0 8576,'0'13'3232,"0"1"-1728,14 12-832,-14-13 1664,0 0-1313,13 27 577,-13-13-960,0 26-96,0-1-320,0 1-1344,13 0 608,-13-13-5375,0 0 3263</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46241.7353">2713 119 3968,'-13'0'1568,"13"0"-832,0 13-224,0-13 1280,0 0-960,0 14 928,0 12-1024,-13 1 768,-1-1-864,14 14 448,-13 0-640,13 13 96,0-14-288,0 1-161,13-13-63,-13-1-127,27 1 63,-14-27-32,0 13 0,14-26 64,-1-1 0,1 1 64,-1-13-32,-13-14 63,1 13-63,-14-26 64,0 27-64,-14-27 64,1 26-64,-13 1 128,12 13-96,-25-1-96,12 14 0,1 14-543,-1 12 319,1 1-1504,-1-1 960,14 1-2752,13-1 2016,-13-13-2336,13 14 2208</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46491.7349">3017 0 8576,'0'13'3232,"0"1"-1728,14 12-832,-14-13 1664,0 0-1313,13 27 577,-13-13-960,0 26-96,0-1-320,0 1-1344,13 0 608,-13-13-5375,0 0 3263</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="158685.6218">3414 2461 5888,'0'0'2272,"0"0"-1216,0 0-672,0 0 960,0 0-768,0 0 480,0 13-608,0-13 800,0 14-672,0-14 832,0 0-801,0 13 385,0 0-544,-14 0 160,14 14-352,-13-1 192,0 1-224,0-1 128,-14 14-192,1 13 128,-1-13-160,-12-1 0,12 14-64,-13 0 32,-12 13-64,12-26 64,13 0-64,-12 0-448,12-1 224,-12 1-2784,12-14 1601,1 14-4833,-1 0 3488</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="159192.3688">2765 3004 6400,'0'0'2368,"0"0"-1280,0 0-576,0 0 1248,0 13-992,-13 1 768,13-1-896,0 13 704,-13 1-737,13 13 449,0-14-608,-13 14 96,-1-14-288,14 14-32,0-13-128,-13-1 0,26 0-32,-13-12-128,14 12 32,-1-26 32,13 13 0,-12 1-96,25-14-128,-12 0-672,12 0 480,1-14-2271,-13 14 1503,-1 0-4064,0 0 2944</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="160818.1813">3652 1720 3968,'0'0'1568,"0"0"-832,0 14-96,0-1 1376,0 0-1088,0 0 608,0 1-896,0 12 256,0 0-512,0 14 224,0 13-352,0-13 192,0-1-224,0 1 352,13 0-320,1-1 32,-1-12-192,0-14-352,14 14 160,-14-14-608,26-13 384,-12 0-1184,-1 0 832,1-13-2592,-1 13 1824,-12-14-2144,-1 14 2048</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="161130.7139">3520 2171 5760,'-27'0'2176,"27"0"-1152,0-14-576,0 14 1216,0 0-960,14 0 800,-14 0-864,13 0 928,0 0-896,0-13 735,1 0-799,12 0 224,-13 0-480,14-14-128,-1 14-128,14-27-1216,0 14 608,13-1-1695,-13 1 1247,-1-1-1888,-12 1 1632,-1 13-2944,1-1 2368</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178842.361">213 2818 3968,'0'27'1568,"0"-27"-832,-14 53-640,14-14 448,0-12-320,0 13-96,0 13-96,0-14-32,0 1 0,0 0 0,0-1 0,-13 1-224,13 0 128,0-14-384,0-13 256,0 1-288,0-1 256,0-13 0,0 13 160,0-26 192,0 0-32,0-14 192,0 1-160,0-27 32,13 13-64,-13-13-64,0 0 32,0-13 160,0 13-96,0 0 608,14 14-416,-14-1 448,0 27-416,0-14-32,0 27-160,0 13-32,0 14-32,0 13-128,0 12 32,0 1-32,0 0 0,0 13 0,0-13 0,0 0 0,13 0 0,-13 0-96,0-13 96,0-14-192,0 14 160,0-27 32,13 0 64,-13-13 352,0-13-192,0 0 352,0-14-288,0-25 32,0-1-160,0-27-64,0 27 0,0-13 96,0 0-64,0 26 192,0 1-160,0 12 96,0 14-96,0 26-64,0 0 0,13 14-32,-13 13 0,0 26 64,0-13-32,0 0-96,14-14 32,-14 1-32,0-14 0,0 1 0,13-1 0,-13 1 0,13-27 0,-13 0 352,13 0-192,0-40 192,-13 14-160,14-27 64,-1 13-96,-13-26 96,13 0-128,-13 0 256,13 13-192,-13 13 320,0 0-256,0 40 256,0 0-256,0 27 32,0 12-128,0 1-64,14 13 0,-14-13-32,0 13 0,13 13 0,-13-13 0,0-14-96,0 1 64,13-13-128,-13-1 96,0-13 96,13 0 0,-13-26 192,14 0-128,-14-40 32,13 13-64,-13-26-64,13 13 32,0-13-128,-13 13 64,13 14 32,-13 12 0,14 1 0,-14 12 0,0 28 64,13-1-32,-13 27-32,0-1 32,13 14-32,-13-13 0,0 13-96,13 0 64,-13-14 32,14 1 0,-14 13-224,13-13 128,0-27-96,-13 0 96,13-13 192,1-13-32,-1-14 32,0 1-32,-13-40 32,26 0-64,-26 0-32,14 13 32,-1 13 32,-13 0-32,13 40 128,0 0-96,-13 40-32,0-14 0,14 14-32,-1 0 0,-13 0 64,0-1-32,0 1-32,13-14 32,-13 14-192,13-14 96,-13-12-32,14-1 32,-14 0 192,13-13-64,-13-13 256,0 0-192,13-27 32,0 0-96,-13-13 32,0 14-64,0-14-96,0 26 32,0 1 32,0 26 0,13 0 64,-13 26-32,0 1-96,14-1 32,-14 14 32,13 0 0,0-1 64,0 14-32,1 0-32,-1 0 32,-13 0-128,13-27 64,0-12 32,1-1 0,-14-40 64,13 14-32,-13-13 64,13-1-64,-13-39 64,13 26-64,-13-12-32,14 12 32,-14 13-32,0 1 0,13 26 0,-13 0 0,0 26 0,0-12 0,13 12 0,-13 1 0,13 12 0,-13-12 0,13-1 0,-13 1 0,14-1-96,-1-13 64,-13-13 96,13 0-32,0-13 128,-13 0-96,14-14 32,-14 1-32,13-1-64,0 1 32,-13 13-32,13 0 0,1-1 0,-14 28 0,13-1-96,0-13 64,-13 26-32,26 1 0,-26-14-160,27 13 128,-14 1-256,0-1 224,14-26-224,-14 14 192,0-14 64,14-14 96,-14 1 64,0 0-32,0-14 64,1 1-64,-1-1 256,0 27-160,-13-13 256,13 13-256,-13 13 32,14 1-96,-1-1-64,-13 13 32,13-12-128,-13 12 64,13-13 32,-13 14 0,14-27 0,-14 13 0,13-13 0,0 0 0,-13 0 128,13-13-64,-13 0 32,13-1-32,-13 1 32,14 0-64,-1 13 128,-13 0-96,13 0 32,-13 13-32,13 0-64,1 14 32,-14-14-128,13 13 64,0 1-256,0-1 160,1-12-96,-1-1 128,0-26 0,13-1 32,-12 14 128,-1-13-32,0 0 64,0 0-64,1-1 128,-1 14-96,-13 0 32,13 0-32,0 0-64,1 0 32,-14 0-128,13 0 64,0 0 32,0-13 0,1 13 0,-1-13 0,-13 0 64,13 13-32,0 0-32,0-13 32,1 13-128,-14 0 64,13 13 32,0-13 0,0 13 64,1-13-32,-1 13-96,0 0 32,-13 1 32,13-1 0,1-13 0,-14 0 0,13 0-96,-13-13 64,13 13 32,-13 0 0,13-14 64,0 28-32,-13-1 64,14-13-64,-14 26-160,13 1 64,-13-14-256,0 14 192,13-14-448,0-13 320,1 0-288,-14 0 288,13-13 0,0-1 160,14 1 0,-14 0 32,0 0 128,13-1-32,-12 14 64,12 14-64,-13-14-96,1 13 32,-1-13-128,13 13 96,-12-26-192,12 13 160,-13-13-1664,14-1 992,-1 1-2784,1 0 1984</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180413.5614">0 2447 1152,'14'0'512,"-14"0"-256,13 0 32,-13 0 544,0 0-448,0 0 192,0 14-352,0-14 64,0 0-160,0 0 224,0 0-224,0 13 320,0-13-256,0 13 384,0-13-320,0 13 96,-13-13-224,13 0 0,0 14-64,0-14-64,13 0 32,-13 0 32,0 0-32,13 0 320,-13 13-160,0 0 448,0-13-352,0 13 160,0-13-288,0 0 0,0 0-96,0 14-64,0-14 32,0 0-32,0 0 0,0 13 192,0-13-96,0 0 192,0 13-192,0-13 192,0 13-192,0-13 192,0 0-192,0 13 96,0 1-96,0-14 96,0 13-128,0-13 256,0 13-192,0 0 320,0 1-256,0-1 160,0 0-192,0 0 224,0 14-256,0-14 160,0 13-160,0-12-64,0 12-32,0-13 32,14 14-32,-14-1 128,0 1-96,0-1 192,0 1-160,0 12 256,0-12-224,0 12 256,0-12-256,0 13 32,-14-14-96,14 14-64,0-14 32,0 1-32,-13-1 64,13 1-32,0 12-32,0-12 32,0-1-32,0 1 0,0-1 191,0 1-95,0-1 32,0 1-64,-13-1-64,26 0 32,-13 1-128,0-1 64,0 1 32,0-1 0,0-13 64,0 14-32,0-14-32,0 0 32,0 1-32,0 12 0,0-13 64,0 1-32,0 12 64,0-13-64,0 0-96,0 14 32,0-14 32,0 0 0,0 1-639,0-14 351,0 13-1312,13 0 928,-13-13-3744,0 0 2464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178842.3609">213 2818 3968,'0'27'1568,"0"-27"-832,-14 53-640,14-14 448,0-12-320,0 13-96,0 13-96,0-14-32,0 1 0,0 0 0,0-1 0,-13 1-224,13 0 128,0-14-384,0-13 256,0 1-288,0-1 256,0-13 0,0 13 160,0-26 192,0 0-32,0-14 192,0 1-160,0-27 32,13 13-64,-13-13-64,0 0 32,0-13 160,0 13-96,0 0 608,14 14-416,-14-1 448,0 27-416,0-14-32,0 27-160,0 13-32,0 14-32,0 13-128,0 12 32,0 1-32,0 0 0,0 13 0,0-13 0,0 0 0,13 0 0,-13 0-96,0-13 96,0-14-192,0 14 160,0-27 32,13 0 64,-13-13 352,0-13-192,0 0 352,0-14-288,0-25 32,0-1-160,0-27-64,0 27 0,0-13 96,0 0-64,0 26 192,0 1-160,0 12 96,0 14-96,0 26-64,0 0 0,13 14-32,-13 13 0,0 26 64,0-13-32,0 0-96,14-14 32,-14 1-32,0-14 0,0 1 0,13-1 0,-13 1 0,13-27 0,-13 0 352,13 0-192,0-40 192,-13 14-160,14-27 64,-1 13-96,-13-26 96,13 0-128,-13 0 256,13 13-192,-13 13 320,0 0-256,0 40 256,0 0-256,0 27 32,0 12-128,0 1-64,14 13 0,-14-13-32,0 13 0,13 13 0,-13-13 0,0-14-96,0 1 64,13-13-128,-13-1 96,0-13 96,13 0 0,-13-26 192,14 0-128,-14-40 32,13 13-64,-13-26-64,13 13 32,0-13-128,-13 13 64,13 14 32,-13 12 0,14 1 0,-14 12 0,0 28 64,13-1-32,-13 27-32,0-1 32,13 14-32,-13-13 0,0 13-96,13 0 64,-13-14 32,14 1 0,-14 13-224,13-13 128,0-27-96,-13 0 96,13-13 192,1-13-32,-1-14 32,0 1-32,-13-40 32,26 0-64,-26 0-32,14 13 32,-1 13 32,-13 0-32,13 40 128,0 0-96,-13 40-32,0-14 0,14 14-32,-1 0 0,-13 0 64,0-1-32,0 1-32,13-14 32,-13 14-192,13-14 96,-13-12-32,14-1 32,-14 0 192,13-13-64,-13-13 256,0 0-192,13-27 32,0 0-96,-13-13 32,0 14-64,0-14-96,0 26 32,0 1 32,0 26 0,13 0 64,-13 26-32,0 1-96,14-1 32,-14 14 32,13 0 0,0-1 64,0 14-32,1 0-32,-1 0 32,-13 0-128,13-27 64,0-12 32,1-1 0,-14-40 64,13 14-32,-13-13 64,13-1-64,-13-39 64,13 26-64,-13-12-32,14 12 32,-14 13-32,0 1 0,13 26 0,-13 0 0,0 26 0,0-12 0,13 12 0,-13 1 0,13 12 0,-13-12 0,13-1 0,-13 1 0,14-1-96,-1-13 64,-13-13 96,13 0-32,0-13 128,-13 0-96,14-14 32,-14 1-32,13-1-64,0 1 32,-13 13-32,13 0 0,1-1 0,-14 28 0,13-1-96,0-13 64,-13 26-32,26 1 0,-26-14-160,27 13 128,-14 1-256,0-1 224,14-26-224,-14 14 192,0-14 64,14-14 96,-14 1 64,0 0-32,0-14 64,1 1-64,-1-1 256,0 27-160,-13-13 256,13 13-256,-13 13 32,14 1-96,-1-1-64,-13 13 32,13-12-128,-13 12 64,13-13 32,-13 14 0,14-27 0,-14 13 0,13-13 0,0 0 0,-13 0 128,13-13-64,-13 0 32,13-1-32,-13 1 32,14 0-64,-1 13 128,-13 0-96,13 0 32,-13 13-32,13 0-64,1 14 32,-14-14-128,13 13 64,0 1-256,0-1 160,1-12-96,-1-1 128,0-26 0,13-1 32,-12 14 128,-1-13-32,0 0 64,0 0-64,1-1 128,-1 14-96,-13 0 32,13 0-32,0 0-64,1 0 32,-14 0-128,13 0 64,0 0 32,0-13 0,1 13 0,-1-13 0,-13 0 64,13 13-32,0 0-32,0-13 32,1 13-128,-14 0 64,13 13 32,0-13 0,0 13 64,1-13-32,-1 13-96,0 0 32,-13 1 32,13-1 0,1-13 0,-14 0 0,13 0-96,-13-13 64,13 13 32,-13 0 0,13-14 64,0 28-32,-13-1 64,14-13-64,-14 26-160,13 1 64,-13-14-256,0 14 192,13-14-448,0-13 320,1 0-288,-14 0 288,13-13 0,0-1 160,14 1 0,-14 0 32,0 0 128,13-1-32,-12 14 64,12 14-64,-13-14-96,1 13 32,-1-13-128,13 13 96,-12-26-192,12 13 160,-13-13-1664,14-1 992,-1 1-2784,1 0 1984</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180413.5613">0 2447 1152,'14'0'512,"-14"0"-256,13 0 32,-13 0 544,0 0-448,0 0 192,0 14-352,0-14 64,0 0-160,0 0 224,0 0-224,0 13 320,0-13-256,0 13 384,0-13-320,0 13 96,-13-13-224,13 0 0,0 14-64,0-14-64,13 0 32,-13 0 32,0 0-32,13 0 320,-13 13-160,0 0 448,0-13-352,0 13 160,0-13-288,0 0 0,0 0-96,0 14-64,0-14 32,0 0-32,0 0 0,0 13 192,0-13-96,0 0 192,0 13-192,0-13 192,0 13-192,0-13 192,0 0-192,0 13 96,0 1-96,0-14 96,0 13-128,0-13 256,0 13-192,0 0 320,0 1-256,0-1 160,0 0-192,0 0 224,0 14-256,0-14 160,0 13-160,0-12-64,0 12-32,0-13 32,14 14-32,-14-1 128,0 1-96,0-1 192,0 1-160,0 12 256,0-12-224,0 12 256,0-12-256,0 13 32,-14-14-96,14 14-64,0-14 32,0 1-32,-13-1 64,13 1-32,0 12-32,0-12 32,0-1-32,0 1 0,0-1 191,0 1-95,0-1 32,0 1-64,-13-1-64,26 0 32,-13 1-128,0-1 64,0 1 32,0-1 0,0-13 64,0 14-32,0-14-32,0 0 32,0 1-32,0 12 0,0-13 64,0 1-32,0 12 64,0-13-64,0 0-96,0 14 32,0-14 32,0 0 0,0 1-639,0-14 351,0 13-1312,13 0 928,-13-13-3744,0 0 2464</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -2513,695 +3157,648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C3930-6D5E-4318-A660-52FE8DBF24D9}">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA28208-C299-4E44-8647-F7967A1E16F3}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
       <c r="B2">
-        <f>(A2-$I$6)^2</f>
-        <v>3.8892770156250007</v>
+        <v>19.277999999999999</v>
+      </c>
+      <c r="C2">
+        <f>B2-A2</f>
+        <v>7.1989999999999981</v>
       </c>
       <c r="D2">
-        <v>19.277999999999999</v>
-      </c>
-      <c r="E2">
-        <f>(D2-$J$6)^2</f>
-        <v>7.4961876736111321</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <f t="shared" ref="D2:D26" si="0">(C2-H$4)^2</f>
+        <v>0.58643687673611011</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
-        <f>COUNT(A2:A499)</f>
+      <c r="H2">
+        <f>COUNT(C2:C501)</f>
         <v>24</v>
       </c>
-      <c r="J2">
-        <f>COUNT(E2:E499)</f>
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="7">
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>16.791</v>
       </c>
       <c r="B3">
-        <f>(A3-$I$6)^2</f>
-        <v>7.5069150156249975</v>
+        <v>18.741</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="1">B3-A3</f>
+        <v>1.9499999999999993</v>
       </c>
       <c r="D3">
-        <v>18.741</v>
-      </c>
-      <c r="E3">
-        <f>(D3-$J$6)^2</f>
-        <v>10.72507917361113</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>36.177718793402754</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <f>I2+J2-2</f>
-        <v>46</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="H3">
+        <f>H2-1</f>
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
       <c r="B4">
-        <f>(A4-$I$6)^2</f>
-        <v>20.134290765625007</v>
+        <v>21.213999999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>11.649999999999999</v>
       </c>
       <c r="D4">
-        <v>21.213999999999999</v>
-      </c>
-      <c r="E4">
-        <f>(D4-$J$6)^2</f>
-        <v>0.64307034027778409</v>
-      </c>
-      <c r="H4" t="s">
+        <f t="shared" si="0"/>
+        <v>13.580760460069452</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4">
-        <f>SUM(B2:B499)</f>
-        <v>291.38766862500006</v>
-      </c>
-      <c r="J4">
-        <f>SUM(E2:E499)</f>
-        <v>529.27041183333336</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="H4">
+        <f>AVERAGE(C2:C501)</f>
+        <v>7.964791666666664</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
       <c r="B5">
-        <f>(A5-$I$6)^2</f>
-        <v>29.388596265625001</v>
+        <v>15.686999999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>7.0569999999999986</v>
       </c>
       <c r="D5">
-        <v>15.686999999999999</v>
-      </c>
-      <c r="E5">
-        <f>(D5-$J$6)^2</f>
-        <v>40.055186173611155</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <f>MEDIAN(A2:A25)</f>
-        <v>14.3565</v>
-      </c>
-      <c r="J5">
-        <f>MEDIAN(D2:D25)</f>
-        <v>21.017499999999998</v>
-      </c>
-      <c r="P5" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>0.8240857100694422</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="7">
-        <f>1-Q4</f>
+      <c r="H5">
+        <f>SUM(D2:D501)/H3</f>
+        <v>23.666540867753621</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f>1-O4</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14.669</v>
       </c>
       <c r="B6">
-        <f>(A6-$I$6)^2</f>
-        <v>0.38176951562499967</v>
+        <v>22.803000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>8.1340000000000003</v>
       </c>
       <c r="D6">
-        <v>22.803000000000001</v>
-      </c>
-      <c r="E6">
-        <f>(D6-$J$6)^2</f>
-        <v>0.61950017361110832</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE(A2:A499)</f>
-        <v>14.051125000000001</v>
-      </c>
-      <c r="J6">
-        <f>AVERAGE(D2:D499)</f>
-        <v>22.015916666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2.8631460069445447E-2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f>SQRT(SUM(D2:D501)/H3)</f>
+        <v>4.8648269103590538</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>12.238</v>
       </c>
       <c r="B7">
-        <f>(A7-$I$6)^2</f>
-        <v>3.2874222656250045</v>
+        <v>20.878</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.64</v>
       </c>
       <c r="D7">
-        <v>20.878</v>
-      </c>
-      <c r="E7">
-        <f>(D7-$J$6)^2</f>
-        <v>1.2948543402777835</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <f>SUM(B2:B502)/(I2-1)</f>
-        <v>12.669029070652176</v>
-      </c>
-      <c r="J7">
-        <f>SUM(E2:E502)/(J2-1)</f>
-        <v>23.011757036231884</v>
-      </c>
-      <c r="K7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="s">
+        <f t="shared" si="0"/>
+        <v>0.4559062934027821</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <f>H6/SQRT(H2)</f>
+        <v>0.99302863477834025</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>14.692</v>
       </c>
       <c r="B8">
-        <f>(A8-$I$6)^2</f>
-        <v>0.41072076562499926</v>
+        <v>24.571999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>9.879999999999999</v>
       </c>
       <c r="D8">
-        <v>24.571999999999999</v>
-      </c>
-      <c r="E8">
-        <f>(D8-$J$6)^2</f>
-        <v>6.5335620069444271</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <f>(I4+J4)/(I2-1+J2-1)</f>
-        <v>17.840393053442032</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="s">
+        <f t="shared" si="0"/>
+        <v>3.6680229600694507</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <f>H4/H7</f>
+        <v>8.020706944109957</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
       <c r="B9">
-        <f>(A9-$I$6)^2</f>
-        <v>25.645362015625008</v>
+        <v>17.393999999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8.4069999999999983</v>
       </c>
       <c r="D9">
-        <v>17.393999999999998</v>
-      </c>
-      <c r="E9">
-        <f>(D9-$J$6)^2</f>
-        <v>21.362113673611152</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <f>SQRT(I7)</f>
-        <v>3.5593579576451955</v>
-      </c>
-      <c r="J9">
-        <f>SQRT(J7)</f>
-        <v>4.7970571224691376</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>0.1955482100694452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
       <c r="B10">
-        <f>(A10-$I$6)^2</f>
-        <v>21.623662515625011</v>
+        <v>20.762</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>11.361000000000001</v>
       </c>
       <c r="D10">
-        <v>20.762</v>
-      </c>
-      <c r="E10">
-        <f>(D10-$J$6)^2</f>
-        <v>1.5723070069444498</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2">
-        <f>SQRT(I9^2/I2 +J9^2/J2)</f>
-        <v>1.2193028422505088</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>11.5342310434028</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>14.48</v>
       </c>
       <c r="B11">
-        <f>(A11-$I$6)^2</f>
-        <v>0.18393376562499972</v>
+        <v>26.282</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>11.802</v>
       </c>
       <c r="D11">
-        <v>26.282</v>
-      </c>
-      <c r="E11">
-        <f>(D11-$J$6)^2</f>
-        <v>18.199467006944424</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <f>SQRT((I8/I2) + (I8/J2))</f>
-        <v>1.219302842250509</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>14.724167793402795</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
       <c r="B12">
-        <f>(A12-$I$6)^2</f>
-        <v>68.506659765624974</v>
+        <v>24.524000000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.1960000000000015</v>
       </c>
       <c r="D12">
-        <v>24.524000000000001</v>
-      </c>
-      <c r="E12">
-        <f>(D12-$J$6)^2</f>
-        <v>6.290482006944436</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <f>((I6-J6)-Q2)/I10</f>
-        <v>-6.5322505539032303</v>
-      </c>
-      <c r="J12">
-        <f>((J6-I6)-Q2)/I10</f>
-        <v>6.5322505539032303</v>
-      </c>
-      <c r="K12" t="s">
+        <f t="shared" si="0"/>
+        <v>33.278957293402733</v>
+      </c>
+      <c r="P12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15.298</v>
       </c>
       <c r="B13">
-        <f>(A13-$I$6)^2</f>
-        <v>1.5546972656249982</v>
+        <v>18.643999999999998</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.3459999999999983</v>
       </c>
       <c r="D13">
-        <v>18.643999999999998</v>
-      </c>
-      <c r="E13">
-        <f>(D13-$J$6)^2</f>
-        <v>11.369822006944473</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>21.333236460069436</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13">
-        <f>((I6-J6)-Q2)/I11</f>
-        <v>-6.5322505539032285</v>
-      </c>
-      <c r="J13">
-        <f>((J6-I6)-R2)/I11</f>
-        <v>6.5322505539032285</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>2.069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>15.073</v>
       </c>
       <c r="B14">
-        <f>(A14-$I$6)^2</f>
-        <v>1.0442285156249993</v>
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.4370000000000012</v>
       </c>
       <c r="D14">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="E14">
-        <f>(D14-$J$6)^2</f>
-        <v>20.303285006944453</v>
-      </c>
-      <c r="R14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>30.556480710069401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
       <c r="B15">
-        <f>(A15-$I$6)^2</f>
-        <v>8.2821645156249861</v>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.4009999999999998</v>
       </c>
       <c r="D15">
-        <v>20.329999999999998</v>
-      </c>
-      <c r="E15">
-        <f>(D15-$J$6)^2</f>
-        <v>2.8423150069444589</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>20.828194376736089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>18.2</v>
       </c>
       <c r="B16">
-        <f>(A16-$I$6)^2</f>
-        <v>17.213163765624987</v>
+        <v>35.255000000000003</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>17.055000000000003</v>
       </c>
       <c r="D16">
-        <v>35.255000000000003</v>
-      </c>
-      <c r="E16">
-        <f>(D16-$J$6)^2</f>
-        <v>175.27332750694444</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>82.631887543402897</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>12.13</v>
       </c>
       <c r="B17">
-        <f>(A17-$I$6)^2</f>
-        <v>3.6907212656249997</v>
+        <v>22.158000000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>10.028</v>
       </c>
       <c r="D17">
-        <v>22.158000000000001</v>
-      </c>
-      <c r="E17">
-        <f>(D17-$J$6)^2</f>
-        <v>2.0187673611110735E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>4.2568286267361239</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(A2:A501)</f>
+        <v>14.051125000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
       <c r="B18">
-        <f>(A18-$I$6)^2</f>
-        <v>19.748025015625004</v>
+        <v>25.138999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>6.6439999999999984</v>
       </c>
       <c r="D18">
-        <v>25.138999999999999</v>
-      </c>
-      <c r="E18">
-        <f>(D18-$J$6)^2</f>
-        <v>9.7536495069444236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.7444906267361087</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(B2:B501)</f>
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
       <c r="B19">
-        <f>(A19-$I$6)^2</f>
-        <v>11.642597015625009</v>
+        <v>20.428999999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>9.7899999999999991</v>
       </c>
       <c r="D19">
-        <v>20.428999999999998</v>
-      </c>
-      <c r="E19">
-        <f>(D19-$J$6)^2</f>
-        <v>2.5183045069444576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>3.331385460069451</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
       <c r="B20">
-        <f>(A20-$I$6)^2</f>
-        <v>7.3285257656250069</v>
+        <v>17.425000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6.0810000000000013</v>
       </c>
       <c r="D20">
-        <v>17.425000000000001</v>
-      </c>
-      <c r="E20">
-        <f>(D20-$J$6)^2</f>
-        <v>21.076515840277796</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>3.5486710434027628</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4">
+        <f>O5</f>
+        <v>0.95</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20">
+        <f>O17-O18</f>
+        <v>-7.9647916666666685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>12.369</v>
       </c>
       <c r="B21">
-        <f>(A21-$I$6)^2</f>
-        <v>2.8295445156250034</v>
+        <v>34.287999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>21.918999999999997</v>
       </c>
       <c r="D21">
-        <v>34.287999999999997</v>
-      </c>
-      <c r="E21">
-        <f>(D21-$J$6)^2</f>
-        <v>150.60402934027763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>194.71993021006946</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f>H4-(H13*H7)</f>
+        <v>5.9102154213102782</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
       <c r="B22">
-        <f>(A22-$I$6)^2</f>
-        <v>1.2257257656249998</v>
+        <v>23.893999999999998</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>10.949999999999998</v>
       </c>
       <c r="D22">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="E22">
-        <f>(D22-$J$6)^2</f>
-        <v>3.5271970069444287</v>
-      </c>
-      <c r="I22" s="5" t="s">
+        <f t="shared" si="0"/>
+        <v>8.9114687934027792</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <f>H4+(H13*H7)</f>
+        <v>10.01936791202305</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
       <c r="B23">
-        <f>(A23-$I$6)^2</f>
-        <v>3.3078515624999923E-2</v>
+        <v>17.96</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.7270000000000003</v>
       </c>
       <c r="D23">
-        <v>17.96</v>
-      </c>
-      <c r="E23">
-        <f>(D23-$J$6)^2</f>
-        <v>16.450460006944457</v>
-      </c>
-      <c r="I23" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>17.958878210069418</v>
+      </c>
+      <c r="N23" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="6">
-        <f>Q5</f>
-        <v>0.95</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="O23">
+        <f>H8^2 / (H8^2 + H3)</f>
+        <v>0.73663641614450603</v>
+      </c>
+      <c r="P23" t="s">
         <v>29</v>
       </c>
-      <c r="P23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23">
-        <f>Q20-Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>19.71</v>
       </c>
       <c r="B24">
-        <f>(A24-$I$6)^2</f>
-        <v>32.022866265624998</v>
+        <v>22.058</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2.347999999999999</v>
       </c>
       <c r="D24">
-        <v>22.058</v>
-      </c>
-      <c r="E24">
-        <f>(D24-$J$6)^2</f>
-        <v>1.7710069444442133E-3</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>31.548348626736093</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <f>(H13*H7)</f>
+        <v>2.0545762453563858</v>
+      </c>
+      <c r="I24" t="s">
         <v>31</v>
       </c>
-      <c r="J24">
-        <f>ABS(I6-J6) - (J16*I10)</f>
-        <v>5.5139929537431467</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
       <c r="B25">
-        <f>(A25-$I$6)^2</f>
-        <v>3.8137207656250021</v>
+        <v>21.157</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5.1529999999999987</v>
       </c>
       <c r="D25">
-        <v>21.157</v>
-      </c>
-      <c r="E25">
-        <f>(D25-$J$6)^2</f>
-        <v>0.73773784027778211</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25">
-        <f>ABS(I6-J6)+(J16*I10)</f>
-        <v>10.41559037959019</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="P26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26">
-        <f>I12^2 / (I12^2 + I3)</f>
-        <v>0.48122424981950718</v>
-      </c>
-      <c r="R26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="I27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>7.9061723767361034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H27" t="b">
+        <f>IF(OR(H8&lt;-H13,H8&gt;H13),TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H28" t="b">
+        <f>IF(AND(H8&gt;-H13,H8&lt;H13),TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I11:J11"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q10" r:id="rId1" xr:uid="{530581AE-F7C7-454A-A560-57E4F5D5D630}"/>
+    <hyperlink ref="O8" r:id="rId1" xr:uid="{EA045C4D-3D2B-4F64-BE30-3F0832FF3609}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
